--- a/Disincorporations Repository/disincs_20220208.xlsx
+++ b/Disincorporations Repository/disincs_20220208.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23d03426a47caebe/3YP/Disincorporations Repository/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23d03426a47caebe/3YP - Disincorporations/Disincorporations Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{ED8718B0-E9CD-4D41-8B7B-2A8C0670B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2BCD727-B40F-4EC2-A997-0B84C1506B0D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{ED8718B0-E9CD-4D41-8B7B-2A8C0670B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{165EADE6-C69A-4B9B-9D7A-CAA2CCFA18D1}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="315" windowWidth="7380" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20940" yWindow="315" windowWidth="7860" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="disincs_20220208" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="95">
   <si>
     <t>USPS</t>
   </si>
@@ -1148,8 +1148,8 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,6 +2639,9 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
       <c r="B26">
         <v>25</v>
       </c>
@@ -2695,6 +2698,9 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
       <c r="B27">
         <v>26</v>
       </c>
@@ -2751,6 +2757,9 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
       <c r="B28">
         <v>27</v>
       </c>

--- a/Disincorporations Repository/disincs_20220208.xlsx
+++ b/Disincorporations Repository/disincs_20220208.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23d03426a47caebe/3YP - Disincorporations/Disincorporations Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{ED8718B0-E9CD-4D41-8B7B-2A8C0670B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{165EADE6-C69A-4B9B-9D7A-CAA2CCFA18D1}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{ED8718B0-E9CD-4D41-8B7B-2A8C0670B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BFC33F2-B4F5-4253-B32B-3B649412336A}"/>
   <bookViews>
-    <workbookView xWindow="20940" yWindow="315" windowWidth="7860" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23124" yWindow="120" windowWidth="6996" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="disincs_20220208" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
   <si>
     <t>USPS</t>
   </si>
@@ -1148,8 +1148,8 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,6 +2816,9 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
       <c r="B29">
         <v>28</v>
       </c>
@@ -2872,6 +2875,9 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
       <c r="B30">
         <v>29</v>
       </c>
@@ -2928,6 +2934,9 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
       <c r="B31">
         <v>30</v>
       </c>
@@ -2984,6 +2993,9 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
       <c r="B32">
         <v>31</v>
       </c>
@@ -3039,7 +3051,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
       <c r="B33">
         <v>32</v>
       </c>
@@ -3095,7 +3110,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
       <c r="B34">
         <v>33</v>
       </c>
@@ -3151,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>34</v>
       </c>
@@ -3207,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>35</v>
       </c>
@@ -3263,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>36</v>
       </c>
@@ -3319,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>37</v>
       </c>
@@ -3375,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>38</v>
       </c>
@@ -3431,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>39</v>
       </c>
@@ -3487,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>40</v>
       </c>
@@ -3543,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>41</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>42</v>
       </c>
@@ -3655,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>43</v>
       </c>
@@ -3711,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>44</v>
       </c>
@@ -3767,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>45</v>
       </c>
@@ -3823,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>46</v>
       </c>
@@ -3879,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>47</v>
       </c>

--- a/Disincorporations Repository/disincs_20220208.xlsx
+++ b/Disincorporations Repository/disincs_20220208.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23d03426a47caebe/3YP - Disincorporations/Disincorporations Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{ED8718B0-E9CD-4D41-8B7B-2A8C0670B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BFC33F2-B4F5-4253-B32B-3B649412336A}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{ED8718B0-E9CD-4D41-8B7B-2A8C0670B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE8A24C2-67BA-44B7-82A3-CA7EAEF13DCD}"/>
   <bookViews>
-    <workbookView xWindow="23124" yWindow="120" windowWidth="6996" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23280" yWindow="1236" windowWidth="9516" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="disincs_20220208" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
   <si>
     <t>USPS</t>
   </si>
@@ -1149,7 +1161,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,6 +3182,9 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
       <c r="B35">
         <v>34</v>
       </c>
@@ -3226,6 +3241,9 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
       <c r="B36">
         <v>35</v>
       </c>
@@ -3282,6 +3300,9 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
       <c r="B37">
         <v>36</v>
       </c>

--- a/Disincorporations Repository/disincs_20220208.xlsx
+++ b/Disincorporations Repository/disincs_20220208.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23d03426a47caebe/3YP - Disincorporations/Disincorporations Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{ED8718B0-E9CD-4D41-8B7B-2A8C0670B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE8A24C2-67BA-44B7-82A3-CA7EAEF13DCD}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:40009_{ED8718B0-E9CD-4D41-8B7B-2A8C0670B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE58ED85-132A-41F2-AA2E-29BFBDC926C2}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="1236" windowWidth="9516" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23244" yWindow="1236" windowWidth="10296" windowHeight="11952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="disincs_20220208" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="95">
   <si>
     <t>USPS</t>
   </si>
@@ -1160,8 +1160,8 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,6 +3359,9 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
       <c r="B38">
         <v>37</v>
       </c>
